--- a/data/trans_dic/P79$ninguna_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P79$ninguna_2023-Estudios-trans_dic.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.7959095180532157</v>
+        <v>0.7959095180532159</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.7827546840909565</v>
+        <v>0.7827546840909566</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.7881983885131872</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7577802496338144</v>
+        <v>0.7587204726190211</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7567222711014782</v>
+        <v>0.7590710337379495</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7674299887257091</v>
+        <v>0.7667340477856343</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8265555823636981</v>
+        <v>0.8291064199615862</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8025247409027706</v>
+        <v>0.8078531490958961</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8077908176340075</v>
+        <v>0.8075157183328866</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8304093924342986</v>
+        <v>0.8302522772089421</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8380808456182317</v>
+        <v>0.8401397021467865</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8401661013674682</v>
+        <v>0.8401403720793378</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8650567832065954</v>
+        <v>0.8640462835696738</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8699673619621063</v>
+        <v>0.8718839500445793</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8639320690159171</v>
+        <v>0.863976630157436</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.9413051500399056</v>
+        <v>0.9413051500399054</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.9352693389173063</v>
+        <v>0.9352693389173061</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9382615871525252</v>
+        <v>0.9382615871525255</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9196749389826629</v>
+        <v>0.9189999497329361</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9155500862152175</v>
+        <v>0.9149832151150712</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9237136663670619</v>
+        <v>0.9223393823474706</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9584753685628591</v>
+        <v>0.9579998065337109</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.950785126581538</v>
+        <v>0.9521308484681548</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9495431245978883</v>
+        <v>0.9495003975080406</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8455587502648048</v>
+        <v>0.845790031480903</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8454734863768983</v>
+        <v>0.8445659900903599</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8483872259536821</v>
+        <v>0.8480282791805188</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8716964997012954</v>
+        <v>0.8720510824653293</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8660761964321132</v>
+        <v>0.8656029891326766</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8654436536299748</v>
+        <v>0.8654170754675543</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>417319</v>
+        <v>417836</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>590316</v>
+        <v>592148</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1021302</v>
+        <v>1020376</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>455194</v>
+        <v>456599</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>626046</v>
+        <v>630203</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1075014</v>
+        <v>1074648</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1791201</v>
+        <v>1790862</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1755538</v>
+        <v>1759851</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3572153</v>
+        <v>3572043</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1865936</v>
+        <v>1863756</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1822331</v>
+        <v>1826346</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>3673199</v>
+        <v>3673388</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>648049</v>
+        <v>647573</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>656206</v>
+        <v>655800</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1312952</v>
+        <v>1310998</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>675390</v>
+        <v>675055</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>681460</v>
+        <v>682425</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1349665</v>
+        <v>1349605</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2885361</v>
+        <v>2886150</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3036554</v>
+        <v>3033294</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5942031</v>
+        <v>5939517</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>2974553</v>
+        <v>2975763</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>3110549</v>
+        <v>3108849</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>6061493</v>
+        <v>6061307</v>
       </c>
     </row>
     <row r="20">
